--- a/src/uploads/file/TemplateTambahSiswa.xlsx
+++ b/src/uploads/file/TemplateTambahSiswa.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18E7D8DF-47AA-4AF5-A944-BD6F5A2F55C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81561A95-5020-4BD3-B2D1-997D028117A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5760" yWindow="3360" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data Siswa" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Laki-Laki</t>
   </si>
@@ -26,9 +26,6 @@
     <t>2023/2024</t>
   </si>
   <si>
-    <t>21312312</t>
-  </si>
-  <si>
     <t>password</t>
   </si>
   <si>
@@ -62,19 +59,19 @@
     <t>jakarta</t>
   </si>
   <si>
-    <t>Scholary</t>
-  </si>
-  <si>
     <t>kelas</t>
   </si>
   <si>
     <t>namaKelas</t>
   </si>
   <si>
-    <t>Alfa</t>
-  </si>
-  <si>
-    <t>18-09-2024</t>
+    <t>Muhammad Reza</t>
+  </si>
+  <si>
+    <t>Jl. Pangeran Diponegoro no.200</t>
+  </si>
+  <si>
+    <t>A</t>
   </si>
 </sst>
 </file>
@@ -505,74 +502,74 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
     <col min="2" max="2" width="30" customWidth="1"/>
     <col min="3" max="5" width="15" customWidth="1"/>
-    <col min="6" max="6" width="15.140625" customWidth="1"/>
+    <col min="6" max="6" width="15.109375" customWidth="1"/>
     <col min="7" max="7" width="15" customWidth="1"/>
     <col min="8" max="8" width="30" customWidth="1"/>
     <col min="9" max="9" width="15" customWidth="1"/>
     <col min="10" max="10" width="25" customWidth="1"/>
-    <col min="11" max="11" width="10.28515625" customWidth="1"/>
-    <col min="12" max="12" width="18.140625" customWidth="1"/>
+    <col min="11" max="11" width="10.33203125" customWidth="1"/>
+    <col min="12" max="12" width="18.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="J1" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" s="2">
+        <v>2729</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
-        <v>202043501579</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>15</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E2" s="5">
         <v>45553</v>
@@ -583,14 +580,14 @@
       <c r="G2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="2">
-        <v>21312312</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>19</v>
+      <c r="H2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" s="2">
+        <v>822665966</v>
+      </c>
+      <c r="J2" s="4">
+        <v>111213</v>
       </c>
       <c r="K2" s="4">
         <v>7</v>
